--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,52 +504,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Присутній</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>х</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>х</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>х</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>х</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>х</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>х</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>х</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Без машини</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Приїду на машині</t>
         </is>
       </c>
     </row>

--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,12 +499,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ff</t>
+          <t>fff</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Відсутній</t>
+          <t>Присутній</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -547,62 +547,9 @@
           <t>✗</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>богдана</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Присутній</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Приїду на машині</t>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Без машини</t>
         </is>
       </c>
     </row>

--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -499,7 +499,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fff</t>
+          <t>fcff</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -514,19 +514,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>✗</t>
@@ -549,7 +549,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Без машини</t>
+          <t>Приїду на машині</t>
         </is>
       </c>
     </row>

--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -499,7 +499,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fcff</t>
+          <t>ff</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✔</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>✗</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -499,7 +499,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ff</t>
+          <t>ddd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -499,7 +499,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ddd</t>
+          <t>gg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -524,34 +524,30 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>✗</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>✗</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>✗</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>✗</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Приїду на машині</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,59 @@
       </c>
       <c r="K2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>gg</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Присутній</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,12 +499,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gg</t>
+          <t>богдана</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Присутній</t>
+          <t>Відсутній</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>✗</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>✗</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -548,59 +548,6 @@
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>gg</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Присутній</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,59 @@
       </c>
       <c r="K2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,6 +602,59 @@
       </c>
       <c r="K3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +499,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>богдана</t>
+          <t>iiandjdmd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -548,112 +548,6 @@
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>богдана</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Відсутній</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>богдана</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Відсутній</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -497,16 +497,6 @@
       <c r="L1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>iiandjdmd</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Відсутній</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>✗</t>

--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -497,6 +497,16 @@
       <c r="L1" s="1" t="n"/>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>богдана</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Відсутній</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>✗</t>

--- a/sorted_data.xlsx
+++ b/sorted_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,59 +549,6 @@
       </c>
       <c r="K2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>богдана</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Відсутній</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
